--- a/va_facility_data_2025-02-20/Altus VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Altus%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Altus VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Altus%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Raf5e37815363457db56cd13e2cc90a01"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0fa05125c35c40248c95ab012f7b81e7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdfe35e4bb3ba4e73b079afec25927230"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R887bde0047f347d0baaa69578c09cf54"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R89e42b687c424df9b5758b4b9c714517"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R46d9ea5a8ad349c3bbe65bab65714f80"/>
   </x:sheets>
 </x:workbook>
 </file>
